--- a/exemples/cryptoSolanaPolygon.xlsx
+++ b/exemples/cryptoSolanaPolygon.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:N9999"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
@@ -506,7 +506,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" s="19" t="inlineStr">
         <is>
@@ -853,26 +853,60 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" ht="12.75" customHeight="1" s="16">
+      <c r="A22" s="15" t="n">
         <v>130.8</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="15" t="inlineStr">
         <is>
           <t>18/11/2025</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="15" t="inlineStr">
         <is>
           <t>01:00:58</t>
         </is>
       </c>
     </row>
-    <row r="23"/>
-    <row r="24"/>
+    <row r="23">
+      <c r="A23" s="26" t="n">
+        <v>125.88</v>
+      </c>
+      <c r="B23" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="26" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D23" s="26" t="inlineStr">
+        <is>
+          <t>14:00:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>125.81</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14:00:33</t>
+        </is>
+      </c>
+    </row>
     <row r="25"/>
     <row r="26"/>
     <row r="27"/>
